--- a/data/income_statement/3digits/total/110_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/110_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>110-Manufacture of beverages</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>110-Manufacture of beverages</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>6925426.57104</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>8352499.078239999</v>
+        <v>8352499.07824</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9477256.139840001</v>
+        <v>9925674.71025</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>9843812.421290001</v>
+        <v>10552603.01972</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12097747.53895</v>
+        <v>12152839.03593</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12865660.48483</v>
+        <v>14294581.65518</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15565580.4832</v>
+        <v>16111305.76621</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15283802.44428</v>
+        <v>17892954.36365</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>21190750.81423</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>26642416.39841</v>
+        <v>26911099.11154</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>33732950.1885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33741303.07295</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>35320055.638</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>6662137.24327</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>8066200.06388</v>
+        <v>8066200.063879999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>9172088.209659999</v>
+        <v>9572370.154280001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9487834.157059999</v>
+        <v>10130926.86135</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11670498.02431</v>
+        <v>11705313.44845</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12444834.63998</v>
+        <v>13775388.17313</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15011008.65811</v>
+        <v>15516189.39042</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14680731.66448</v>
+        <v>17287546.13033</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>20417282.76499</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>25615756.57336</v>
+        <v>25881813.808</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>32541951.29294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>32550008.83105</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>33982564.061</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>203455.78721</v>
@@ -1034,40 +950,45 @@
         <v>230167.45156</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>240282.30876</v>
+        <v>288418.9345499999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>276006.92159</v>
+        <v>341699.81573</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>336952.46485</v>
+        <v>356438.65721</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>303626.46082</v>
+        <v>397443.43243</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>453187.97697</v>
+        <v>482804.46082</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>469642.70017</v>
+        <v>469646.16281</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>596828.60207</v>
+        <v>596828.6020699999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>767270.02728</v>
+        <v>769583.0184299999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>897261.29362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>897531.0307799999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>984777.775</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>59833.54056</v>
+        <v>59833.54056000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>56131.5628</v>
@@ -1076,34 +997,39 @@
         <v>64885.62142</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>79971.34264</v>
+        <v>79976.34263999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>90297.04978999999</v>
+        <v>91086.93027</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>117199.38403</v>
+        <v>121750.04962</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>101383.84812</v>
+        <v>112311.91497</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>133428.07963</v>
+        <v>135762.07051</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>176639.44717</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>259389.79777</v>
+        <v>259702.28511</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>293737.60194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>293763.21112</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>352713.802</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>2153019.90657</v>
@@ -1112,37 +1038,42 @@
         <v>2976766.40282</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3567832.564879999</v>
+        <v>3879746.52414</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3528143.25253</v>
+        <v>4034362.18707</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5028290.76725</v>
+        <v>5032492.01845</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>5015813.98843</v>
+        <v>6032230.425299999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6810037.948910001</v>
+        <v>6931963.80734</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5817964.4512</v>
+        <v>8025089.57096</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>9413255.166450001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>11978593.53844</v>
+        <v>11984991.81442</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>15706641.60908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15706874.13708</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>16048950.186</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>65791.12534</v>
@@ -1157,31 +1088,36 @@
         <v>92977.47791</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>105599.25495</v>
+        <v>105737.1502</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>146790.65287</v>
+        <v>160173.68022</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>145790.75639</v>
+        <v>174728.44818</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>201725.1776</v>
+        <v>216048.2754</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>253228.29048</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>385209.70594</v>
+        <v>385803.48302</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1249161.61403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1249309.06757</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1129459.149</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>84351.16475999999</v>
@@ -1190,37 +1126,42 @@
         <v>138510.80047</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>144742.96767</v>
+        <v>144980.27903</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>200116.57841</v>
+        <v>201021.08081</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>255898.97485</v>
+        <v>259056.29617</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>304039.24949</v>
+        <v>304328.98361</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>388832.2755100001</v>
+        <v>409083.66851</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>456679.74797</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>551051.8117800001</v>
+        <v>551051.81178</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>552097.7235</v>
+        <v>557902.2224</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1910049.895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1910102.03568</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1745319.77</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2002877.61647</v>
@@ -1229,22 +1170,22 @@
         <v>2762577.03148</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3340398.362420001</v>
+        <v>3652075.01032</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3235049.19621</v>
+        <v>3740363.62835</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4666792.53745</v>
+        <v>4667698.572080001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4564984.08607</v>
+        <v>5567727.76147</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6275414.91701</v>
+        <v>6348151.690649999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5159559.525629999</v>
+        <v>7352361.547590001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>8608975.06419</v>
@@ -1253,52 +1194,62 @@
         <v>11041286.109</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12547430.10005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>12547463.03383</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13174171.267</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4772406.664469999</v>
+        <v>4772406.66447</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>5375732.675420001</v>
+        <v>5375732.67542</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5909423.57496</v>
+        <v>6045928.186110001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6315669.16876</v>
+        <v>6518240.832649999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7069456.7717</v>
+        <v>7120347.01748</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7849846.496400001</v>
+        <v>8262351.229880001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8755542.534289999</v>
+        <v>9179341.958870001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9465837.993079999</v>
+        <v>9867864.792690001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>11777495.64778</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>14663822.85997</v>
+        <v>14926107.29712</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>18026308.57942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18034428.93587</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>19271105.452</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3514007.05062</v>
@@ -1307,37 +1258,42 @@
         <v>3941049.14603</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4411755.21284</v>
+        <v>4527336.87331</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4633027.28548</v>
+        <v>4795982.6173</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5335316.541739999</v>
+        <v>5371530.885650001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5923503.717609999</v>
+        <v>6235127.042189999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6639336.79026</v>
+        <v>6928265.61371</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>7165786.06692</v>
+        <v>7515619.63832</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>9033846.14907</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>11650953.82492</v>
+        <v>11846335.77453</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>14035099.72003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14038759.23194</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>15172675.746</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3247230.89649</v>
@@ -1346,37 +1302,42 @@
         <v>3663723.02371</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4142532.30821</v>
+        <v>4253163.584439999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>4372906.5675</v>
+        <v>4529788.817109999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5055551.04949</v>
+        <v>5091548.564769999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5580122.138669999</v>
+        <v>5879143.96889</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6267326.653580001</v>
+        <v>6531522.771600001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6673948.7473</v>
+        <v>7021190.29994</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>8419943.368040001</v>
+        <v>8419943.368039999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>10733247.53725</v>
+        <v>10928590.68589</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>13006681.65368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13009856.45006</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>14157179.034</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>224593.68482</v>
@@ -1385,19 +1346,19 @@
         <v>227537.00289</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>183876.74136</v>
+        <v>188662.40749</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>180302.29713</v>
+        <v>186061.61986</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>208075.09526</v>
+        <v>208138.91445</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>225470.76892</v>
+        <v>237908.36961</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>287735.72323</v>
+        <v>307154.13015</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>376576.98542</v>
@@ -1406,16 +1367,21 @@
         <v>453546.1663400001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>719345.6615899999</v>
+        <v>719374.64136</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>700667.65573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>703455.83774</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>746365.9350000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>27745.40585</v>
@@ -1433,28 +1399,33 @@
         <v>38736.33665999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>70487.42782</v>
+        <v>70500.91250000001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>44907.23243</v>
+        <v>45873.47479000001</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>56838.52625</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>87710.81177</v>
+        <v>87710.81177000001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>114415.03855</v>
+        <v>114424.85975</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>135570.04356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>133266.57708</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>121880.663</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14437.06346</v>
@@ -1463,37 +1434,42 @@
         <v>17042.85981</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>42357.76568</v>
+        <v>42522.48379</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>24308.23538</v>
+        <v>24621.99486</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32954.06033</v>
+        <v>33107.06977</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>47423.3822</v>
+        <v>47573.79119</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>39367.18102</v>
+        <v>43715.23717</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>58421.80795</v>
+        <v>61013.82671</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>72645.80292</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>83945.58753</v>
+        <v>83945.58752999999</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>192180.36706</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>147250.114</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1258399.61385</v>
@@ -1502,37 +1478,42 @@
         <v>1434683.52939</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1497668.36212</v>
+        <v>1518591.3128</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1682641.88328</v>
+        <v>1722258.21535</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1734140.22996</v>
+        <v>1748816.13183</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1926342.77879</v>
+        <v>2027224.18769</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2116205.74403</v>
+        <v>2251076.34516</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2300051.92616</v>
+        <v>2352245.15437</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2743649.49871</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3012869.03505</v>
+        <v>3079771.52259</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3991208.85939</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3995669.70393</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4098429.706</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>585609.96089</v>
@@ -1541,37 +1522,42 @@
         <v>712900.7290299999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>839667.71786</v>
+        <v>855050.5279</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1058558.93727</v>
+        <v>1080429.43711</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1212697.14695</v>
+        <v>1242438.75843</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1300426.7569</v>
+        <v>1401424.98649</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1465960.99032</v>
+        <v>1528134.71487</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1663378.26147</v>
+        <v>1700040.01069</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1859282.3802</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2224425.40354</v>
+        <v>2265402.202</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2751315.53992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2753996.36123</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3044325.867</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>5075.29052</v>
@@ -1595,7 +1581,7 @@
         <v>10314.28026</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>10524.74841</v>
+        <v>11148.14118</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>9939.08157</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>17717.50451</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>20697.071</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>283104.2986</v>
@@ -1619,19 +1610,19 @@
         <v>366401.4929</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>437794.7136</v>
+        <v>448710.1609</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>579100.8186099998</v>
+        <v>593987.76117</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>676626.0753699999</v>
+        <v>703851.4641500001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>727701.9894099998</v>
+        <v>813865.3485300001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>812616.2282300001</v>
+        <v>863192.58526</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>972532.4581199999</v>
@@ -1640,16 +1631,21 @@
         <v>1108089.50346</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1323263.63179</v>
+        <v>1359801.27291</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1638485.796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1639206.80536</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1832826.487</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>297430.37177</v>
@@ -1658,37 +1654,42 @@
         <v>340868.45927</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>395307.0231899999</v>
+        <v>399774.3859299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>472779.18551</v>
+        <v>479762.74279</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>528104.15068</v>
+        <v>530620.37338</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>563799.1689500001</v>
+        <v>578634.0394199999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>643030.4818300001</v>
+        <v>654627.8493499999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>680321.0549400001</v>
+        <v>716359.41139</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>741253.7951700001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>888439.5041</v>
+        <v>892878.6614399999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1095112.23941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1097072.05136</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1190802.309</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>672789.6529600001</v>
@@ -1697,37 +1698,42 @@
         <v>721782.8003599999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>658000.6442600001</v>
+        <v>663540.7849</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>624082.94601</v>
+        <v>641828.77824</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>521443.0830100001</v>
+        <v>506377.3734</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>625916.0218899999</v>
+        <v>625799.2011999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>650244.7537100001</v>
+        <v>722941.63029</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>636673.6646899999</v>
+        <v>652205.14368</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>884367.1185099999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>788443.63151</v>
+        <v>814369.3205899999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1239893.31947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1241673.3427</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1054103.839</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>299967.12874</v>
@@ -1736,37 +1742,42 @@
         <v>300581.91979</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>386494.16721</v>
+        <v>391050.7127800001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>453636.19519</v>
+        <v>460360.9956199999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>650439.37811</v>
+        <v>652244.62358</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>610335.95187</v>
+        <v>631861.6544999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>798451.5726000002</v>
+        <v>804084.9900899999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>940827.94762</v>
+        <v>997170.7024500001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1514422.83592</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4506880.92643</v>
+        <v>4511197.27692</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2422959.712689999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2424362.94067</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3329964.818</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>21474.66597</v>
@@ -1775,16 +1786,16 @@
         <v>22052.20301</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>29849.42144000001</v>
+        <v>29851.38995</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>26108.30241</v>
+        <v>26110.60528</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>57572.76306</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>46457.06807</v>
+        <v>46459.81407</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>55526.33441</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>135202.31956</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>114234.248</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>53112.85113</v>
@@ -1826,10 +1842,10 @@
         <v>74765.03511</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>64496.37556</v>
+        <v>66769.14256000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>75155.05958</v>
+        <v>76827.25958000001</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>163916.50588</v>
@@ -1840,35 +1856,40 @@
       <c r="M27" s="48" t="n">
         <v>537229.38012</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>711766.491</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>55696.77323000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>79913.85533999999</v>
+        <v>79913.85534000002</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>66689.06028999999</v>
+        <v>67653.76022</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>66043.31608</v>
+        <v>68204.07120000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>59145.2945</v>
+        <v>59523.91713999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>96739.38989999999</v>
+        <v>98730.70746000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>110069.16005</v>
+        <v>110360.05866</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>116950.89685</v>
+        <v>117082.99824</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>178039.98817</v>
@@ -1877,13 +1898,18 @@
         <v>348781.1608</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>247913.0972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>247913.36354</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>353665.425</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>9.621919999999999</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>388.0971700000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>102.601</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1656.26119</v>
@@ -1931,22 +1962,22 @@
         <v>1488.03919</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3516.18317</v>
+        <v>3518.54035</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1824.30317</v>
+        <v>1987.89392</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>3291.61795</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4488.13958</v>
+        <v>4491.106650000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>2700.1113</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2204.83928</v>
+        <v>3544.47939</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>15365.62594</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>8202.31006</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>7955.569</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1846.92409</v>
@@ -1970,37 +2006,42 @@
         <v>364.1885</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>477.74223</v>
+        <v>496.95698</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>83.13072</v>
+        <v>397.28169</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2854.250210000001</v>
+        <v>2857.52962</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>81.50395000000002</v>
+        <v>8213.698410000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>133.36173</v>
+        <v>175.12184</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1832.57358</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5833.7064</v>
+        <v>5833.706399999999</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>147798.66919</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3137.39425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3137.39558</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1758.696</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>98686.46023</v>
@@ -2009,37 +2050,42 @@
         <v>94647.49476999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>173645.64023</v>
+        <v>174980.22358</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>233905.95391</v>
+        <v>235319.1867</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>273076.7966199999</v>
+        <v>273668.09108</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>216163.69548</v>
+        <v>223435.72042</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>387265.92564</v>
+        <v>388361.41994</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>523819.23799</v>
+        <v>526347.14541</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>701441.38901</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3085398.61219</v>
+        <v>3086485.07135</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1179796.45546</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1180061.24335</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1792975.083</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>441.8408</v>
@@ -2054,7 +2100,7 @@
         <v>524.23635</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>395.875</v>
+        <v>702.9665</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>336.81744</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1088.3396</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1971.719</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>19.782</v>
@@ -2093,7 +2144,7 @@
         <v>8.83348</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>5.2263</v>
+        <v>5.226299999999999</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>67021.94817999999</v>
+        <v>67021.94818000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>86120.17287000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>99715.52695999999</v>
+        <v>101949.24881</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>112924.30554</v>
+        <v>115595.07347</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>153884.07864</v>
+        <v>154409.0361</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>171187.7461</v>
+        <v>175312.1987</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>177795.56602</v>
+        <v>179728.06349</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>196161.18772</v>
+        <v>246832.09363</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>284366.06636</v>
+        <v>284366.0663599999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>279435.9921</v>
+        <v>282665.88343</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>310002.31927</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>311140.49169</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>345534.986</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>171357.22256</v>
@@ -2165,55 +2226,60 @@
         <v>127568.36172</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>167001.60095</v>
+        <v>170167.49814</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>184855.6366999999</v>
+        <v>187755.20661</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>165062.79175</v>
+        <v>165731.21811</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>140677.60466</v>
+        <v>146911.40719</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>195181.48139</v>
+        <v>197138.30548</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>312921.15025</v>
+        <v>323048.3572</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>517931.35675</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1133289.06487</v>
+        <v>1135852.78474</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>671875.9563500001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>672492.1879700001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1090311.609</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>105.49352</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>733.8055300000001</v>
+        <v>733.80553</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>124.96285</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>332.51466</v>
+        <v>332.90491</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>174.30558</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>137.17585</v>
+        <v>137.17845</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>102.86506</v>
@@ -2230,23 +2296,28 @@
       <c r="M37" s="48" t="n">
         <v>320.43112</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>161.911</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6679.31158</v>
+        <v>6679.311580000001</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>12064.76554</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9540.767469999999</v>
+        <v>9667.585929999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>14902.77907</v>
+        <v>14910.13968</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>9699.394189999999</v>
@@ -2255,10 +2326,10 @@
         <v>11533.32462</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>15908.26721</v>
+        <v>16120.0525</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>17236.30132</v>
+        <v>23210.65051</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>18674.06427</v>
@@ -2267,13 +2338,18 @@
         <v>32285.75196</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>41974.07603</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>41974.07603000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>55180.287</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.00087</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1938.55342</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>16.966</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>116103.64741</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>74542.18597999999</v>
+        <v>74542.18598000001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>106528.47418</v>
+        <v>108240.5924</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>113266.04886</v>
+        <v>114675.34817</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>121412.28452</v>
+        <v>121768.43393</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>84487.6421</v>
+        <v>89113.22215999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>143803.02448</v>
+        <v>145353.92348</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>249942.24083</v>
+        <v>253061.06987</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>443529.15197</v>
+        <v>443529.1519699999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1026005.95218</v>
+        <v>1027183.77571</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>535936.8416700001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>536543.8314499999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>952119.463</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>213.12067</v>
@@ -2366,7 +2452,7 @@
         <v>395.88488</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>353.3142</v>
+        <v>660.4056999999999</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>361.8104</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>910.1108</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2485.273</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>48255.64851</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>39731.11378000001</v>
+        <v>39731.11378</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>50302.25317</v>
+        <v>51629.21368</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>55957.96379</v>
+        <v>57440.48353</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>33273.21081</v>
+        <v>33278.39626</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>44156.96969</v>
+        <v>45765.18956</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>34103.22081</v>
+        <v>34297.36061</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>43352.23822</v>
+        <v>44386.26693999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>53510.16923</v>
+        <v>53510.16923000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>70829.62495999999</v>
+        <v>72215.52129999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>90795.94331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>90805.18515</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>80347.709</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>132524.74382</v>
@@ -2477,37 +2578,42 @@
         <v>161677.63239</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>399783.8508100001</v>
+        <v>403924.15354</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>221450.78594</v>
+        <v>225322.46824</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>858263.9727399999</v>
+        <v>860300.56236</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>637164.73837</v>
+        <v>647729.34612</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1227736.87633</v>
+        <v>1237235.78025</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1232270.0968</v>
+        <v>1232957.88773</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1078541.00436</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3846170.46561</v>
+        <v>3846508.71806</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1727432.11508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1727604.96298</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2452845.398</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>128340.75396</v>
@@ -2516,40 +2622,45 @@
         <v>135240.21265</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>331899.57374</v>
+        <v>336039.87647</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>190345.20839</v>
+        <v>194216.89069</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>802805.6696700001</v>
+        <v>804842.25929</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>501858.1064</v>
+        <v>512422.71415</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>894342.98459</v>
+        <v>901472.3301200001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>850906.8250800001</v>
+        <v>851510.19111</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>893486.5320400001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2892127.08719</v>
+        <v>2892183.26032</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1379654.36788</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1379714.48487</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1580739.862</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4183.989860000001</v>
+        <v>4183.98986</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>26437.41974</v>
@@ -2567,64 +2678,74 @@
         <v>135306.63197</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>333393.8917400001</v>
+        <v>335763.4501300001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>381363.27172</v>
+        <v>381447.69662</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>185054.47232</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>954043.37842</v>
+        <v>954325.45774</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>347777.7472</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>347890.47811</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>872105.536</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>668874.8153199999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>733118.72604</v>
+        <v>733118.7260400001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>477709.35971</v>
+        <v>480499.846</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>671412.7185600001</v>
+        <v>689112.09901</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>148555.69663</v>
+        <v>132590.21651</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>458409.63073</v>
+        <v>463020.10239</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>25777.96859</v>
+        <v>92652.53465</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>32310.36526</v>
+        <v>93369.6012</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>802317.5933200001</v>
+        <v>802317.59332</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>315865.02746</v>
+        <v>343205.09471</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1263544.96073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1265939.13242</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>840911.65</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>27339.38001</v>
@@ -2633,37 +2754,42 @@
         <v>78399.28693999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>183402.50425</v>
+        <v>184118.47176</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>90091.54371</v>
+        <v>90909.91538999998</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>48485.71372</v>
+        <v>48681.07549</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>80302.77779999998</v>
+        <v>86037.13706000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>94972.7758</v>
+        <v>97343.74471000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>63227.49650999999</v>
+        <v>64838.01203</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>81540.26349</v>
+        <v>81540.26349000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>108524.6552</v>
+        <v>108675.50537</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>525119.176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>525206.43113</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>511861.789</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2571.3632</v>
@@ -2672,13 +2798,13 @@
         <v>1878.0461</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3324.41484</v>
+        <v>3411.368310000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>41241.96545</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3230.49293</v>
+        <v>3256.43529</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1132.7616</v>
@@ -2698,50 +2824,60 @@
       <c r="M49" s="48" t="n">
         <v>2146.64443</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>269876.513</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>24768.01681</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>76521.24083999998</v>
+        <v>76521.24084</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>180078.08941</v>
+        <v>180707.10345</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>48849.57826</v>
+        <v>49667.94994</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>45255.22079000001</v>
+        <v>45424.64019999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>79170.0162</v>
+        <v>84904.37546000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>93727.75112</v>
+        <v>96098.72003</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>62216.36210000001</v>
+        <v>63826.87762</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>80472.75713999999</v>
+        <v>80472.75714</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>107726.26349</v>
+        <v>107877.11366</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>522972.53157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>523059.7867</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>241985.276</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>56112.37817</v>
@@ -2750,37 +2886,42 @@
         <v>164434.06008</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>458444.89203</v>
+        <v>459357.68976</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>151857.47235</v>
+        <v>152493.977</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>138438.49291</v>
+        <v>139632.63274</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>121568.59762</v>
+        <v>126207.65955</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>116529.2718</v>
+        <v>119805.71832</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>166407.1242</v>
+        <v>181785.11697</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>121962.94006</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>198526.83151</v>
+        <v>198711.13489</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>364924.03781</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>365291.9826</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>236334.45</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>22386.66103</v>
@@ -2789,37 +2930,42 @@
         <v>29426.41315</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>40421.77107</v>
+        <v>40555.76593</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>39995.49005000001</v>
+        <v>39995.49005</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>44905.0477</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>48209.92702999999</v>
+        <v>48209.92703</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>42229.12895000001</v>
+        <v>42339.48368</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>33884.65013</v>
+        <v>46270.64255</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>56254.6628</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>52425.39287</v>
+        <v>52428.05954</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>63548.33596</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>55847.005</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2802.14963</v>
@@ -2828,19 +2974,19 @@
         <v>2921.59323</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>20351.42202</v>
+        <v>20492.50839</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10754.68405</v>
+        <v>10816.75468</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2935.7746</v>
+        <v>3034.32357</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>7780.678970000001</v>
+        <v>8817.96185</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4622.81008</v>
+        <v>4825.567150000001</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>4813.82883</v>
@@ -2849,16 +2995,21 @@
         <v>3645.238139999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>8820.746009999999</v>
+        <v>8821.01146</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9344.114129999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9349.600190000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6047.218</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>30923.56751</v>
@@ -2867,76 +3018,86 @@
         <v>132086.0537</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>397671.69894</v>
+        <v>398309.41544</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>101107.29825</v>
+        <v>101681.73227</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>90597.67060999999</v>
+        <v>91693.26146999998</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>65577.99162</v>
+        <v>69179.77067</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>69677.33276999999</v>
+        <v>72640.66748999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>127708.64524</v>
+        <v>130700.64559</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>62063.03912</v>
+        <v>62063.03911999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>137280.69263</v>
+        <v>137462.06389</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>292031.58772</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>292394.04645</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>174440.227</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>640101.81716</v>
+        <v>640101.8171600001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>647083.9528999998</v>
+        <v>647083.9529</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>202666.97193</v>
+        <v>205260.628</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>609646.7899199999</v>
+        <v>627528.0374</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>58602.91743999999</v>
+        <v>41638.65925999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>417143.81091</v>
+        <v>422849.5799</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4221.472589999999</v>
+        <v>70190.56103999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-70869.26242999999</v>
+        <v>-23577.50374</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>761894.91675</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>225862.85115</v>
+        <v>253169.46519</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1423740.09892</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1425853.58095</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1116438.989</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>136514.29414</v>
@@ -2948,34 +3109,39 @@
         <v>113055.53465</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>151571.39863</v>
+        <v>151577.73762</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>51025.39134</v>
+        <v>51593.37118</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>75558.99177000001</v>
+        <v>77524.00795999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>46090.23829</v>
+        <v>58394.49562</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>70642.76446999999</v>
+        <v>81180.01242000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>91062.02764999999</v>
+        <v>91062.02765</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>146015.46681</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>138833.94083</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>138879.1106</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>170423.363</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>503587.52302</v>
@@ -2984,34 +3150,37 @@
         <v>505145.06967</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>89611.43728</v>
+        <v>92205.09335000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>458075.3912899999</v>
+        <v>475950.2997800001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7577.526099999994</v>
+        <v>-9954.711919999987</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>341584.81914</v>
+        <v>345325.57194</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-41868.7657</v>
+        <v>11796.06542</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-141512.0269</v>
+        <v>-104757.51616</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>670832.8890999999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>79847.38433999999</v>
+        <v>107153.99838</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1284906.15809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1286974.47035</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>946015.626</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>543</v>
@@ -3038,34 +3210,37 @@
         <v>549</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>539</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>591</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>